--- a/data/trans_dic/P39A3_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9075328906753277</v>
+        <v>0.9128416726920033</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9045730567898127</v>
+        <v>0.9022978390555406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9157343052033066</v>
+        <v>0.9145253827399218</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9632610329366779</v>
+        <v>0.9654272361822159</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9431436246859358</v>
+        <v>0.9436301111856572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9482034457404828</v>
+        <v>0.9465937086866884</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9484212680721973</v>
+        <v>0.9484212680721974</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9534753384412871</v>
+        <v>0.9534753384412872</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9511152726679759</v>
+        <v>0.9511152726679758</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9269252604740099</v>
+        <v>0.9289757387318819</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9418422462734406</v>
+        <v>0.9404124906319739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9411238119882949</v>
+        <v>0.9395144482746122</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9625139690576575</v>
+        <v>0.9626287527170954</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9639058551423293</v>
+        <v>0.9641250096191257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9603590690320646</v>
+        <v>0.9603721288915879</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.8936898588407594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9141390711762682</v>
+        <v>0.9141390711762681</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9136568700922223</v>
+        <v>0.917188820446692</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8766041805736331</v>
+        <v>0.8750846216921826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9021374153329936</v>
+        <v>0.9027106990018221</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9472512892522963</v>
+        <v>0.9500355441622363</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9082870922893242</v>
+        <v>0.9094063294227395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9257815959812158</v>
+        <v>0.9243418844388903</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8312469832843122</v>
+        <v>0.8312469832843121</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8444835614359326</v>
+        <v>0.8444835614359327</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.837583361229864</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8050883766051733</v>
+        <v>0.8030962828157636</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8221961601308282</v>
+        <v>0.8221169902467766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8214338010801001</v>
+        <v>0.8203776087860106</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8557824900031225</v>
+        <v>0.8551408382377768</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8631185114552515</v>
+        <v>0.8632306694150609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8540491093856857</v>
+        <v>0.8537301197109638</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.9038913679886486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9064703034778134</v>
+        <v>0.9064703034778135</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8986680751419964</v>
+        <v>0.8975158799662571</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8949599447053515</v>
+        <v>0.8948947295160024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8991732282150117</v>
+        <v>0.8994194256080215</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9195615563129967</v>
+        <v>0.9195051778997547</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9110718552687257</v>
+        <v>0.9122845109102314</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.913404220723697</v>
+        <v>0.9127495249655508</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>361279</v>
+        <v>363392</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>494924</v>
+        <v>493679</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>865574</v>
+        <v>864431</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>383464</v>
+        <v>384326</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>516027</v>
+        <v>516293</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>896265</v>
+        <v>894743</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>830031</v>
+        <v>831867</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>962725</v>
+        <v>961263</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1804737</v>
+        <v>1801650</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>861899</v>
+        <v>862002</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>985278</v>
+        <v>985502</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1841623</v>
+        <v>1841648</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>919201</v>
+        <v>922754</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>877935</v>
+        <v>876413</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1811118</v>
+        <v>1812269</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>952999</v>
+        <v>955800</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>909666</v>
+        <v>910787</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1858586</v>
+        <v>1855696</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>764513</v>
+        <v>762621</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>716962</v>
+        <v>716893</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1496331</v>
+        <v>1494407</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>812652</v>
+        <v>812043</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>752646</v>
+        <v>752744</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1555744</v>
+        <v>1555162</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2919975</v>
+        <v>2916231</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3081198</v>
+        <v>3080973</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6017319</v>
+        <v>6018967</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2987862</v>
+        <v>2987679</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3136668</v>
+        <v>3140843</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6112554</v>
+        <v>6108173</v>
       </c>
     </row>
     <row r="24">
